--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3350.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3350.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206939870157259</v>
+        <v>1.962721347808838</v>
       </c>
       <c r="B1">
-        <v>2.762924473177057</v>
+        <v>3.66393518447876</v>
       </c>
       <c r="C1">
-        <v>6.928812574570975</v>
+        <v>2.893548488616943</v>
       </c>
       <c r="D1">
-        <v>2.128222123546559</v>
+        <v>2.350312948226929</v>
       </c>
       <c r="E1">
-        <v>1.17501188368128</v>
+        <v>1.487265944480896</v>
       </c>
     </row>
   </sheetData>
